--- a/translation/xlsx/_meak_014_2.xlsx
+++ b/translation/xlsx/_meak_014_2.xlsx
@@ -51,7 +51,7 @@
     <t>It was time for the library to close. I had to leave.</t>
   </si>
   <si>
-    <t xml:space="preserve">도서관이 폐관할 시간이 되서 자리를 옮겨야 했다. </t>
+    <t xml:space="preserve">도서관이 폐관할 시간이 되어서 자리를 옮겨야 했다. </t>
   </si>
   <si>
     <t>도서관이 폐관할 시간이 되어서 나는 문을 닫았다.</t>
@@ -1056,7 +1056,7 @@
     <t xml:space="preserve"> About Satoshi-kun, as well...?\"</t>
   </si>
   <si>
-    <t>사토시 군과의 일도…?\"</t>
+    <t>사토시와의 일도…?\"</t>
   </si>
   <si>
     <t>사토시와의 일도....?"</t>
@@ -1092,7 +1092,7 @@
     <t>\"...I figured you loved him.\"</t>
   </si>
   <si>
-    <t xml:space="preserve">\"………시온이 사토시 군을 좋아한다는 건… 물론 알고 있었어.\" </t>
+    <t xml:space="preserve">\"………시온이 사토시를 좋아한다는 건… 물론 알고 있었어.\" </t>
   </si>
   <si>
     <t>"......시음이 오사를 좋아하는 것은...물론 알고 있었어."</t>
@@ -1200,7 +1200,7 @@
     <t>\"I wonder where... Satoshi-kun disappeared to, though...\"</t>
   </si>
   <si>
-    <t xml:space="preserve">\"사토시 군……… 어디로 간 걸까.\" </t>
+    <t xml:space="preserve">\"사토시……… 어디로 간 걸까.\" </t>
   </si>
   <si>
     <t>'오사(悟士).........어디로 갔을까?'</t>
@@ -1494,7 +1494,7 @@
     <t>\"I really don't know... what happened to Satoshi-kun...\"</t>
   </si>
   <si>
-    <t xml:space="preserve">\"사토시 군에 대해선…………정말로 몰라……\" </t>
+    <t xml:space="preserve">\"사토시에 대해선…………정말로 몰라……\" </t>
   </si>
   <si>
     <t>"오사의 일은....정말로 몰라......"</t>
@@ -1887,7 +1887,7 @@
     <t>\"...Since I found out you loved Satoshi-kun...</t>
   </si>
   <si>
-    <t xml:space="preserve">\"…시온이, 사토시 군을 좋아한다는 걸 알고서. </t>
+    <t xml:space="preserve">&lt;size=-2&gt;\"…시온이, 사토시를 좋아한다는 걸 알고서. </t>
   </si>
   <si>
     <t>"......시온이 말이야, 오사를 좋아하는 걸 알아.</t>
@@ -1899,7 +1899,7 @@
     <t xml:space="preserve"> I really wanted you to be happy...</t>
   </si>
   <si>
-    <t xml:space="preserve">…나, 시온과 사토시 군이 행복해지기를 바랬어……. </t>
+    <t xml:space="preserve">…나, 시온과 사토시가 행복해지기를 바랬어……. </t>
   </si>
   <si>
     <t>......나, 시음과 오사가 행복해지길 바랬어......</t>
@@ -2007,7 +2007,7 @@
     <t xml:space="preserve"> I shouted at her...!!</t>
   </si>
   <si>
-    <t>시온과 사토시 군을 가만히 놔 두었으면 좋겠다고!!</t>
+    <t>시온과 사토시를 가만히 놔 두었으면 좋겠다고!!</t>
   </si>
   <si>
     <t>시음과 오사를 가만히 해주길 바란대!!</t>
@@ -2151,7 +2151,7 @@
     <t xml:space="preserve"> I really don't know why Satoshi-kun disappeared......</t>
   </si>
   <si>
-    <t xml:space="preserve">………정말로 사토시 군이 어째서 없어져 버렸는지…… 모르겠어. </t>
+    <t xml:space="preserve">………정말로 사토시가 어째서 없어져 버렸는지…… 모르겠어. </t>
   </si>
   <si>
     <t>..........정말로 오사가 왜 없어져 버렸는지......모르겠어.</t>
@@ -2187,7 +2187,7 @@
     <t xml:space="preserve"> so she would never do anything to him......!\"</t>
   </si>
   <si>
-    <t xml:space="preserve">그러니까… 사토시 군에게 그런 짓은 절대로 하지 않아………!\" </t>
+    <t xml:space="preserve">그러니까… 사토시에게 그런 짓은 절대로 하지 않아………!\" </t>
   </si>
   <si>
     <t>그러니까...사토시에게 뭔가 할일은 절대 없어....!"</t>
@@ -3147,14 +3147,14 @@
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3499,7 +3499,7 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3515,7 +3515,7 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3531,7 +3531,7 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3547,7 +3547,7 @@
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -3563,7 +3563,7 @@
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3579,7 +3579,7 @@
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3595,7 +3595,7 @@
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3611,7 +3611,7 @@
       <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3623,7 +3623,7 @@
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3645,7 +3645,7 @@
       <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -3679,7 +3679,7 @@
       <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3695,7 +3695,7 @@
       <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3707,7 +3707,7 @@
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3763,7 +3763,7 @@
       <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3813,7 +3813,7 @@
       <c r="C23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3829,7 +3829,7 @@
       <c r="C24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3845,7 +3845,7 @@
       <c r="C25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3857,7 +3857,7 @@
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3879,7 +3879,7 @@
       <c r="C27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -3929,7 +3929,7 @@
       <c r="C30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -3941,7 +3941,7 @@
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3981,7 +3981,7 @@
       <c r="C33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -4049,7 +4049,7 @@
       <c r="C37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
         <v>142</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -4077,7 +4077,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4099,7 +4099,7 @@
       <c r="C40" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>154</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -4131,7 +4131,7 @@
       <c r="C42" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>162</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -4191,7 +4191,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="5"/>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4215,7 +4215,7 @@
       <c r="C47" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -4231,7 +4231,7 @@
       <c r="C48" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>186</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -4247,7 +4247,7 @@
       <c r="C49" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="7" t="s">
         <v>190</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -4263,7 +4263,7 @@
       <c r="C50" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -4315,7 +4315,7 @@
       <c r="C53" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="8" t="s">
         <v>206</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -4349,7 +4349,7 @@
       <c r="C55" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="7" t="s">
         <v>214</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4365,7 +4365,7 @@
       <c r="C56" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="7" t="s">
         <v>218</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -4381,7 +4381,7 @@
       <c r="C57" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="7" t="s">
         <v>222</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4397,7 +4397,7 @@
       <c r="C58" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -4413,7 +4413,7 @@
       <c r="C59" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="7" t="s">
         <v>230</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4429,7 +4429,7 @@
       <c r="C60" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="7" t="s">
         <v>234</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4445,7 +4445,7 @@
       <c r="C61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="7" t="s">
         <v>238</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -4461,7 +4461,7 @@
       <c r="C62" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="7" t="s">
         <v>242</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -4477,7 +4477,7 @@
       <c r="C63" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="7" t="s">
         <v>246</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -4493,7 +4493,7 @@
       <c r="C64" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="7" t="s">
         <v>250</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -4509,7 +4509,7 @@
       <c r="C65" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="7" t="s">
         <v>254</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -4537,7 +4537,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="5"/>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>260</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -4577,7 +4577,7 @@
       <c r="C69" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="7" t="s">
         <v>270</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -4609,7 +4609,7 @@
       <c r="C71" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="7" t="s">
         <v>278</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -4625,7 +4625,7 @@
       <c r="C72" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="7" t="s">
         <v>282</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -4659,7 +4659,7 @@
       <c r="C74" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="7" t="s">
         <v>290</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -4675,7 +4675,7 @@
       <c r="C75" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="7" t="s">
         <v>294</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -4721,7 +4721,7 @@
       <c r="A78" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -4743,7 +4743,7 @@
       <c r="C79" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="7" t="s">
         <v>310</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -4753,13 +4753,13 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="5"/>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="9" t="s">
         <v>312</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="7" t="s">
         <v>314</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -4769,13 +4769,13 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="5"/>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>316</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="7" t="s">
         <v>318</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -4785,7 +4785,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="5"/>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>320</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -4803,7 +4803,7 @@
       <c r="A83" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>324</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -4819,7 +4819,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="5"/>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>328</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -4871,7 +4871,7 @@
       <c r="A87" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>340</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -4887,13 +4887,13 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="5"/>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>344</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="8" t="s">
         <v>346</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -4909,7 +4909,7 @@
       <c r="C89" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="7" t="s">
         <v>350</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -4925,7 +4925,7 @@
       <c r="C90" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="6" t="s">
         <v>354</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -4943,7 +4943,7 @@
       <c r="C91" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="8" t="s">
         <v>358</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -4961,7 +4961,7 @@
       <c r="C92" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="7" t="s">
         <v>362</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -4977,7 +4977,7 @@
       <c r="C93" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="7" t="s">
         <v>366</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -5027,7 +5027,7 @@
       <c r="C96" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="7" t="s">
         <v>378</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -5095,7 +5095,7 @@
       <c r="C100" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="8" t="s">
         <v>394</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -5145,7 +5145,7 @@
       <c r="C102" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="7" t="s">
         <v>399</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -5161,7 +5161,7 @@
       <c r="C103" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="7" t="s">
         <v>403</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -5177,7 +5177,7 @@
       <c r="C104" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="7" t="s">
         <v>407</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -5193,7 +5193,7 @@
       <c r="C105" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="7" t="s">
         <v>411</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -5209,7 +5209,7 @@
       <c r="C106" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="7" t="s">
         <v>415</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -5253,13 +5253,13 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="5"/>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="9" t="s">
         <v>418</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="7" t="s">
         <v>420</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -5269,13 +5269,13 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="5"/>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="9" t="s">
         <v>422</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="7" t="s">
         <v>424</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -5291,7 +5291,7 @@
       <c r="C110" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="7" t="s">
         <v>428</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -5301,13 +5301,13 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="5"/>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="9" t="s">
         <v>430</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="7" t="s">
         <v>432</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -5317,13 +5317,13 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="5"/>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="9" t="s">
         <v>434</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="7" t="s">
         <v>436</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -5339,7 +5339,7 @@
       <c r="C113" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="7" t="s">
         <v>440</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -5355,7 +5355,7 @@
       <c r="C114" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="7" t="s">
         <v>444</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -5367,7 +5367,7 @@
       <c r="A115" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="8" t="s">
         <v>446</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -5389,7 +5389,7 @@
       <c r="C116" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="7" t="s">
         <v>452</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -5399,13 +5399,13 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="5"/>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="7" t="s">
         <v>454</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="7" t="s">
         <v>456</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -5421,7 +5421,7 @@
       <c r="C118" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="7" t="s">
         <v>460</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -5437,7 +5437,7 @@
       <c r="C119" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="7" t="s">
         <v>464</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -5453,7 +5453,7 @@
       <c r="C120" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="7" t="s">
         <v>468</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -5487,7 +5487,7 @@
       <c r="C122" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="7" t="s">
         <v>476</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -5503,7 +5503,7 @@
       <c r="C123" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="7" t="s">
         <v>480</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -5519,7 +5519,7 @@
       <c r="C124" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="7" t="s">
         <v>484</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -5529,13 +5529,13 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="5"/>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="9" t="s">
         <v>486</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="7" t="s">
         <v>488</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -5553,7 +5553,7 @@
       <c r="C126" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="8" t="s">
         <v>492</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -5569,7 +5569,7 @@
       <c r="C127" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="7" t="s">
         <v>496</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -5603,7 +5603,7 @@
       <c r="C129" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="7" t="s">
         <v>504</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -5613,7 +5613,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="5"/>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="9" t="s">
         <v>506</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -5653,7 +5653,7 @@
       <c r="C132" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="6" t="s">
         <v>516</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -5685,7 +5685,7 @@
       <c r="C134" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D134" s="7" t="s">
         <v>524</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -5701,7 +5701,7 @@
       <c r="C135" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D135" s="7" t="s">
         <v>528</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -5717,7 +5717,7 @@
       <c r="C136" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="7" t="s">
         <v>532</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -5733,7 +5733,7 @@
       <c r="C137" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="7" t="s">
         <v>536</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -5749,7 +5749,7 @@
       <c r="C138" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D138" s="7" t="s">
         <v>540</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -5767,7 +5767,7 @@
       <c r="C139" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="8" t="s">
         <v>544</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -5777,13 +5777,13 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="5"/>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="9" t="s">
         <v>546</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="7" t="s">
         <v>548</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -5793,13 +5793,13 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="5"/>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="9" t="s">
         <v>550</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="7" t="s">
         <v>552</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -5809,7 +5809,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="5"/>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="9" t="s">
         <v>554</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -5825,13 +5825,13 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="5"/>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="7" t="s">
         <v>558</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="7" t="s">
         <v>560</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -5847,7 +5847,7 @@
       <c r="C144" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="7" t="s">
         <v>564</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -5863,7 +5863,7 @@
       <c r="C145" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="7" t="s">
         <v>568</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -5879,7 +5879,7 @@
       <c r="C146" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="7" t="s">
         <v>572</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -5925,7 +5925,7 @@
       <c r="A148" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="8" t="s">
         <v>576</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -5968,7 +5968,7 @@
       <c r="C150" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="D150" s="7" t="s">
         <v>587</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -5984,7 +5984,7 @@
       <c r="C151" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D151" s="6" t="s">
+      <c r="D151" s="7" t="s">
         <v>591</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -6000,7 +6000,7 @@
       <c r="C152" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -6016,7 +6016,7 @@
       <c r="C153" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="7" t="s">
         <v>599</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -6032,7 +6032,7 @@
       <c r="C154" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="D154" s="7" t="s">
         <v>603</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -6042,13 +6042,13 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="5"/>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="6" t="s">
         <v>605</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D155" s="7" t="s">
         <v>607</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -6060,7 +6060,7 @@
       <c r="A156" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="8" t="s">
         <v>609</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -6082,7 +6082,7 @@
       <c r="C157" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D157" s="7" t="s">
         <v>615</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -6092,13 +6092,13 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="5"/>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="7" t="s">
         <v>617</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D158" s="7" t="s">
         <v>619</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -6116,7 +6116,7 @@
       <c r="C159" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="8" t="s">
         <v>623</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -6126,7 +6126,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="5"/>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="6" t="s">
         <v>625</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -6148,7 +6148,7 @@
       <c r="C161" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="7" t="s">
         <v>631</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -6158,7 +6158,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="5"/>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="9" t="s">
         <v>633</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -6180,7 +6180,7 @@
       <c r="C163" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D163" s="7" t="s">
         <v>639</v>
       </c>
       <c r="E163" s="1" t="s">
@@ -6196,7 +6196,7 @@
       <c r="C164" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D164" s="7" t="s">
         <v>643</v>
       </c>
       <c r="E164" s="1" t="s">
@@ -6212,7 +6212,7 @@
       <c r="C165" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D165" s="7" t="s">
         <v>647</v>
       </c>
       <c r="E165" s="1" t="s">
@@ -6228,7 +6228,7 @@
       <c r="C166" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D166" s="7" t="s">
         <v>651</v>
       </c>
       <c r="E166" s="1" t="s">
@@ -6262,7 +6262,7 @@
       <c r="C168" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D168" s="7" t="s">
         <v>659</v>
       </c>
       <c r="E168" s="1" t="s">
@@ -6272,7 +6272,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="5"/>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="6" t="s">
         <v>661</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -6288,13 +6288,13 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="5"/>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="9" t="s">
         <v>665</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D170" s="6" t="s">
+      <c r="D170" s="7" t="s">
         <v>667</v>
       </c>
       <c r="E170" s="1" t="s">
@@ -6304,13 +6304,13 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="5"/>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="9" t="s">
         <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="D171" s="6" t="s">
+      <c r="D171" s="7" t="s">
         <v>671</v>
       </c>
       <c r="E171" s="1" t="s">
@@ -6320,13 +6320,13 @@
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="5"/>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="9" t="s">
         <v>673</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="6" t="s">
         <v>675</v>
       </c>
       <c r="E172" s="1" t="s">
@@ -6338,13 +6338,13 @@
       <c r="A173" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C173" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="6" t="s">
         <v>679</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -6360,7 +6360,7 @@
       <c r="C174" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="6" t="s">
         <v>683</v>
       </c>
       <c r="E174" s="1" t="s">
@@ -6370,13 +6370,13 @@
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="5"/>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="9" t="s">
         <v>685</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D175" s="7" t="s">
         <v>687</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -6386,7 +6386,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="5"/>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="9" t="s">
         <v>689</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -6408,7 +6408,7 @@
       <c r="C177" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D177" s="7" t="s">
         <v>695</v>
       </c>
       <c r="E177" s="1" t="s">
@@ -6424,7 +6424,7 @@
       <c r="C178" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="6" t="s">
         <v>699</v>
       </c>
       <c r="E178" s="1" t="s">
@@ -6440,7 +6440,7 @@
       <c r="C179" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="D179" s="6" t="s">
+      <c r="D179" s="7" t="s">
         <v>703</v>
       </c>
       <c r="E179" s="1" t="s">
@@ -6484,13 +6484,13 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="5"/>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="9" t="s">
         <v>713</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="D182" s="6" t="s">
+      <c r="D182" s="7" t="s">
         <v>715</v>
       </c>
       <c r="E182" s="1" t="s">
@@ -6506,7 +6506,7 @@
       <c r="C183" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="D183" s="6" t="s">
+      <c r="D183" s="7" t="s">
         <v>719</v>
       </c>
       <c r="E183" s="1" t="s">
@@ -6516,13 +6516,13 @@
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="5"/>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="9" t="s">
         <v>721</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="8" t="s">
         <v>723</v>
       </c>
       <c r="E184" s="1" t="s">
@@ -6550,7 +6550,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="5"/>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="9" t="s">
         <v>729</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -6572,7 +6572,7 @@
       <c r="C187" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D187" s="7" t="s">
         <v>735</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -6600,13 +6600,13 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="5"/>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="9" t="s">
         <v>741</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D189" s="6" t="s">
+      <c r="D189" s="7" t="s">
         <v>743</v>
       </c>
       <c r="E189" s="1" t="s">
@@ -6638,7 +6638,7 @@
       <c r="C191" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="D191" s="6" t="s">
+      <c r="D191" s="7" t="s">
         <v>751</v>
       </c>
       <c r="E191" s="1" t="s">
@@ -6654,7 +6654,7 @@
       <c r="C192" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="D192" s="6" t="s">
+      <c r="D192" s="7" t="s">
         <v>755</v>
       </c>
       <c r="E192" s="1" t="s">
@@ -6670,7 +6670,7 @@
       <c r="C193" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="D193" s="6" t="s">
+      <c r="D193" s="7" t="s">
         <v>759</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -6686,7 +6686,7 @@
       <c r="C194" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="D194" s="6" t="s">
+      <c r="D194" s="7" t="s">
         <v>763</v>
       </c>
       <c r="E194" s="1" t="s">
@@ -6702,7 +6702,7 @@
       <c r="C195" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="D195" s="6" t="s">
+      <c r="D195" s="7" t="s">
         <v>767</v>
       </c>
       <c r="E195" s="1" t="s">
@@ -6718,7 +6718,7 @@
       <c r="C196" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="D196" s="6" t="s">
+      <c r="D196" s="7" t="s">
         <v>771</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -6750,7 +6750,7 @@
       <c r="C198" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="D198" s="6" t="s">
+      <c r="D198" s="7" t="s">
         <v>779</v>
       </c>
       <c r="E198" s="1" t="s">
@@ -6794,13 +6794,13 @@
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="5"/>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="9" t="s">
         <v>782</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="D200" s="6" t="s">
+      <c r="D200" s="7" t="s">
         <v>784</v>
       </c>
       <c r="E200" s="1" t="s">
@@ -6810,13 +6810,13 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="5"/>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="9" t="s">
         <v>786</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="D201" s="6" t="s">
+      <c r="D201" s="7" t="s">
         <v>788</v>
       </c>
       <c r="E201" s="1" t="s">
@@ -6826,13 +6826,13 @@
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="5"/>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="9" t="s">
         <v>790</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="D202" s="6" t="s">
+      <c r="D202" s="7" t="s">
         <v>792</v>
       </c>
       <c r="E202" s="1" t="s">
@@ -6842,13 +6842,13 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="5"/>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="8" t="s">
         <v>794</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="D203" s="6" t="s">
+      <c r="D203" s="7" t="s">
         <v>796</v>
       </c>
       <c r="E203" s="1" t="s">
@@ -6858,13 +6858,13 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="5"/>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="9" t="s">
         <v>798</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="D204" s="6" t="s">
+      <c r="D204" s="7" t="s">
         <v>800</v>
       </c>
       <c r="E204" s="1" t="s">
@@ -6874,13 +6874,13 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="5"/>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="9" t="s">
         <v>802</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="D205" s="6" t="s">
+      <c r="D205" s="7" t="s">
         <v>804</v>
       </c>
       <c r="E205" s="1" t="s">
@@ -6890,13 +6890,13 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="5"/>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="9" t="s">
         <v>806</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="D206" s="6" t="s">
+      <c r="D206" s="7" t="s">
         <v>808</v>
       </c>
       <c r="E206" s="1" t="s">
@@ -6912,7 +6912,7 @@
       <c r="C207" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="D207" s="6" t="s">
+      <c r="D207" s="7" t="s">
         <v>812</v>
       </c>
       <c r="E207" s="1" t="s">
@@ -6922,13 +6922,13 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="5"/>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="9" t="s">
         <v>814</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D208" s="6" t="s">
+      <c r="D208" s="7" t="s">
         <v>816</v>
       </c>
       <c r="E208" s="1" t="s">
@@ -6938,7 +6938,7 @@
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="5"/>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="9" t="s">
         <v>818</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -6954,7 +6954,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="5"/>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="9" t="s">
         <v>822</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -6970,7 +6970,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="5"/>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="8" t="s">
         <v>826</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -6986,13 +6986,13 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="5"/>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="9" t="s">
         <v>830</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="D212" s="6" t="s">
+      <c r="D212" s="7" t="s">
         <v>832</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -7002,13 +7002,13 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="5"/>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="9" t="s">
         <v>834</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="D213" s="6" t="s">
+      <c r="D213" s="7" t="s">
         <v>836</v>
       </c>
       <c r="E213" s="1" t="s">
@@ -7018,13 +7018,13 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="5"/>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="9" t="s">
         <v>838</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="D214" s="6" t="s">
+      <c r="D214" s="7" t="s">
         <v>840</v>
       </c>
       <c r="E214" s="1" t="s">
@@ -7034,13 +7034,13 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="5"/>
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="9" t="s">
         <v>842</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="D215" s="6" t="s">
+      <c r="D215" s="7" t="s">
         <v>844</v>
       </c>
       <c r="E215" s="1" t="s">
@@ -7050,13 +7050,13 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="5"/>
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="9" t="s">
         <v>846</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="D216" s="6" t="s">
+      <c r="D216" s="7" t="s">
         <v>848</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -7066,13 +7066,13 @@
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="5"/>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="9" t="s">
         <v>850</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="D217" s="6" t="s">
+      <c r="D217" s="7" t="s">
         <v>852</v>
       </c>
       <c r="E217" s="1" t="s">
@@ -7082,13 +7082,13 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="5"/>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="9" t="s">
         <v>854</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="D218" s="6" t="s">
+      <c r="D218" s="7" t="s">
         <v>856</v>
       </c>
       <c r="E218" s="1" t="s">
@@ -7098,13 +7098,13 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="5"/>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="9" t="s">
         <v>858</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="D219" s="6" t="s">
+      <c r="D219" s="7" t="s">
         <v>860</v>
       </c>
       <c r="E219" s="1" t="s">
@@ -7114,13 +7114,13 @@
     </row>
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="5"/>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="9" t="s">
         <v>862</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="D220" s="6" t="s">
+      <c r="D220" s="7" t="s">
         <v>864</v>
       </c>
       <c r="E220" s="1" t="s">
@@ -7130,13 +7130,13 @@
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="5"/>
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="9" t="s">
         <v>866</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D221" s="6" t="s">
+      <c r="D221" s="7" t="s">
         <v>868</v>
       </c>
       <c r="E221" s="1" t="s">
@@ -7152,7 +7152,7 @@
       <c r="C222" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="D222" s="6" t="s">
+      <c r="D222" s="7" t="s">
         <v>872</v>
       </c>
       <c r="E222" s="1" t="s">
@@ -7168,7 +7168,7 @@
       <c r="C223" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="D223" s="6" t="s">
+      <c r="D223" s="7" t="s">
         <v>876</v>
       </c>
       <c r="E223" s="1" t="s">
@@ -7214,7 +7214,7 @@
       <c r="A225" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="8" t="s">
         <v>878</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -7306,7 +7306,7 @@
       <c r="C230" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="D230" s="6" t="s">
+      <c r="D230" s="7" t="s">
         <v>900</v>
       </c>
       <c r="E230" s="1" t="s">
@@ -7322,7 +7322,7 @@
       <c r="C231" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="D231" s="6" t="s">
+      <c r="D231" s="7" t="s">
         <v>904</v>
       </c>
       <c r="E231" s="1" t="s">
@@ -7338,7 +7338,7 @@
       <c r="C232" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="D232" s="6" t="s">
+      <c r="D232" s="7" t="s">
         <v>908</v>
       </c>
       <c r="E232" s="1" t="s">
@@ -7422,7 +7422,7 @@
       <c r="C237" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="D237" s="6" t="s">
+      <c r="D237" s="7" t="s">
         <v>928</v>
       </c>
       <c r="E237" s="1" t="s">
@@ -7438,7 +7438,7 @@
       <c r="C238" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="D238" s="6" t="s">
+      <c r="D238" s="7" t="s">
         <v>932</v>
       </c>
       <c r="E238" s="1" t="s">
@@ -7488,7 +7488,7 @@
       <c r="C241" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D241" s="6" t="s">
+      <c r="D241" s="7" t="s">
         <v>944</v>
       </c>
       <c r="E241" s="1" t="s">
@@ -7504,7 +7504,7 @@
       <c r="C242" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="D242" s="6" t="s">
+      <c r="D242" s="7" t="s">
         <v>948</v>
       </c>
       <c r="E242" s="1" t="s">
@@ -7536,7 +7536,7 @@
       <c r="C244" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="D244" s="6" t="s">
+      <c r="D244" s="7" t="s">
         <v>956</v>
       </c>
       <c r="E244" s="1" t="s">
@@ -7552,7 +7552,7 @@
       <c r="C245" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="D245" s="6" t="s">
+      <c r="D245" s="7" t="s">
         <v>960</v>
       </c>
       <c r="E245" s="1" t="s">
@@ -7568,7 +7568,7 @@
       <c r="C246" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="D246" s="6" t="s">
+      <c r="D246" s="7" t="s">
         <v>964</v>
       </c>
       <c r="E246" s="1" t="s">
@@ -7584,7 +7584,7 @@
       <c r="C247" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="D247" s="6" t="s">
+      <c r="D247" s="7" t="s">
         <v>968</v>
       </c>
       <c r="E247" s="1" t="s">
@@ -7600,7 +7600,7 @@
       <c r="C248" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="D248" s="6" t="s">
+      <c r="D248" s="7" t="s">
         <v>972</v>
       </c>
       <c r="E248" s="1" t="s">
@@ -7616,7 +7616,7 @@
       <c r="C249" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="D249" s="6" t="s">
+      <c r="D249" s="7" t="s">
         <v>976</v>
       </c>
       <c r="E249" s="1" t="s">
@@ -7632,7 +7632,7 @@
       <c r="C250" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="D250" s="6" t="s">
+      <c r="D250" s="7" t="s">
         <v>980</v>
       </c>
       <c r="E250" s="1" t="s">
@@ -7648,7 +7648,7 @@
       <c r="C251" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="D251" s="6" t="s">
+      <c r="D251" s="7" t="s">
         <v>984</v>
       </c>
       <c r="E251" s="1" t="s">
@@ -7664,7 +7664,7 @@
       <c r="C252" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="D252" s="6" t="s">
+      <c r="D252" s="7" t="s">
         <v>988</v>
       </c>
       <c r="E252" s="1" t="s">
@@ -7712,7 +7712,7 @@
       <c r="C255" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="D255" s="6" t="s">
+      <c r="D255" s="7" t="s">
         <v>1000</v>
       </c>
       <c r="E255" s="1" t="s">
@@ -7728,7 +7728,7 @@
       <c r="C256" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="D256" s="6" t="s">
+      <c r="D256" s="7" t="s">
         <v>1004</v>
       </c>
       <c r="E256" s="1" t="s">
@@ -7744,7 +7744,7 @@
       <c r="C257" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="D257" s="6" t="s">
+      <c r="D257" s="7" t="s">
         <v>1008</v>
       </c>
       <c r="E257" s="1" t="s">
@@ -7760,7 +7760,7 @@
       <c r="C258" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="D258" s="6" t="s">
+      <c r="D258" s="7" t="s">
         <v>1012</v>
       </c>
       <c r="E258" s="1" t="s">
@@ -7776,7 +7776,7 @@
       <c r="C259" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="D259" s="6" t="s">
+      <c r="D259" s="7" t="s">
         <v>1016</v>
       </c>
       <c r="E259" s="1" t="s">
